--- a/biology/Botanique/Aimo_Kaarlo_Cajander/Aimo_Kaarlo_Cajander.xlsx
+++ b/biology/Botanique/Aimo_Kaarlo_Cajander/Aimo_Kaarlo_Cajander.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Aimo Kaarlo Cajander est un botaniste et homme d'État finlandais né le 4 avril 1879 à Uusikaupunki et mort le 21 janvier 1943 à Helsinki. Il fut Premier ministre de son pays à trois reprises jusqu'à l'éclatement de la Guerre d'Hiver en 1939[1].
+Aimo Kaarlo Cajander est un botaniste et homme d'État finlandais né le 4 avril 1879 à Uusikaupunki et mort le 21 janvier 1943 à Helsinki. Il fut Premier ministre de son pays à trois reprises jusqu'à l'éclatement de la Guerre d'Hiver en 1939.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est professeur de foresterie de 1911 à 1934, directeur-général de l'administration finlandaise chargée des forêts de 1934 à 1943.
 Il est par ailleurs Premier ministre en 1922, 1924 et de 1937 à 1939, membre de l'Eduskunta de 1929 à 1933 et président de son parti politique de 1933 à 1943.
@@ -546,7 +560,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Die Alluvionen des unteren Lena-Thales Band: 1 - 1903
 Beiträge zur Kenntniss der Vegetation der Alluvionen des nördlichen Eurasiens - 1903
